--- a/ProcessedData/conf_rbf_SVM_audio_4.xlsx
+++ b/ProcessedData/conf_rbf_SVM_audio_4.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4809524369057388</v>
+        <v>0.2363326373942055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8048878051391851</v>
+        <v>0.7482884376541236</v>
       </c>
       <c r="D2" t="n">
-        <v>1.682423798264843</v>
+        <v>0.01537892495167113</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3060854985552342</v>
+        <v>0.323677780365629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.817841705357918</v>
+        <v>0.6560459014100302</v>
       </c>
       <c r="D3" t="n">
-        <v>1.489227681477182</v>
+        <v>0.02027631822434089</v>
       </c>
       <c r="E3" t="n">
         <v>28</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.746237397267379</v>
+        <v>0.1358934903530288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4251487954828376</v>
+        <v>0.8142012496446359</v>
       </c>
       <c r="D4" t="n">
-        <v>1.114507542588818</v>
+        <v>0.04990526000233534</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.132220726070443</v>
+        <v>0.0875018305091681</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2157969587243572</v>
+        <v>0.5877196729227244</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1920786386576696</v>
+        <v>0.3247784965681076</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4623567426127695</v>
+        <v>0.2432049817591675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7453894792333072</v>
+        <v>0.7311854976274375</v>
       </c>
       <c r="D6" t="n">
-        <v>1.371969527418777</v>
+        <v>0.02560952061339525</v>
       </c>
       <c r="E6" t="n">
         <v>28</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4630300363162976</v>
+        <v>0.2420853615917926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7129712499713575</v>
+        <v>0.726381468076279</v>
       </c>
       <c r="D7" t="n">
-        <v>1.254540731342438</v>
+        <v>0.0315331703319283</v>
       </c>
       <c r="E7" t="n">
         <v>28</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8392110166885092</v>
+        <v>0.08699079814801779</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4933437249657006</v>
+        <v>0.2675263110249818</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.467053266413579</v>
+        <v>0.6454828908270005</v>
       </c>
       <c r="E8" t="n">
         <v>28</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4945052752891715</v>
+        <v>0.2256551534023555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5889266294814602</v>
+        <v>0.7293195258538436</v>
       </c>
       <c r="D9" t="n">
-        <v>1.096824109222702</v>
+        <v>0.04502532074380081</v>
       </c>
       <c r="E9" t="n">
         <v>28</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7034208647764617</v>
+        <v>0.1462609851804317</v>
       </c>
       <c r="C10" t="n">
-        <v>0.239066818563512</v>
+        <v>0.7749026349113717</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9403686552999418</v>
+        <v>0.07883637990819654</v>
       </c>
       <c r="E10" t="n">
         <v>28</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6698346583660426</v>
+        <v>0.1579432833488271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3190964670497861</v>
+        <v>0.7949247321577269</v>
       </c>
       <c r="D11" t="n">
-        <v>1.254974914389642</v>
+        <v>0.04713198449344592</v>
       </c>
       <c r="E11" t="n">
         <v>28</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7087557612364324</v>
+        <v>0.145312833838021</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2762450409614386</v>
+        <v>0.7831468672367613</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9797971225104264</v>
+        <v>0.07154029892521774</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.167863156530345</v>
+        <v>0.0635668728539061</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.49283338546785</v>
+        <v>0.4256525896285842</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1287141193420139</v>
+        <v>0.5107805375175094</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.8178251765825311</v>
+        <v>0.1243129928323335</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1649993427882807</v>
+        <v>0.555208433649604</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1644846597741962</v>
+        <v>0.320478573518062</v>
       </c>
       <c r="E14" t="n">
         <v>28</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.6542772940261303</v>
+        <v>0.1643102595129998</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4257657502965598</v>
+        <v>0.7764211317436537</v>
       </c>
       <c r="D15" t="n">
-        <v>1.010952288830105</v>
+        <v>0.05926860874334643</v>
       </c>
       <c r="E15" t="n">
         <v>28</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.144313411999647</v>
+        <v>0.07894737274555824</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.231276987290545</v>
+        <v>0.6272340325717698</v>
       </c>
       <c r="D16" t="n">
-        <v>0.277668653469995</v>
+        <v>0.2938185946826719</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3739324507987195</v>
+        <v>0.2905712305997947</v>
       </c>
       <c r="C17" t="n">
-        <v>1.08104449077268</v>
+        <v>0.7010404957409969</v>
       </c>
       <c r="D17" t="n">
-        <v>1.891997970776963</v>
+        <v>0.008388273659208103</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.370547425735069</v>
+        <v>0.02199735315058685</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9245023327807219</v>
+        <v>0.2505964051393727</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5219502403941262</v>
+        <v>0.7274062417100404</v>
       </c>
       <c r="E18" t="n">
         <v>28</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.02959813221878</v>
+        <v>0.07802890458014886</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1714804954523886</v>
+        <v>0.7414986356527518</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5922205292428587</v>
+        <v>0.1804724597670994</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9704421534547552</v>
+        <v>0.1092041128503153</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04070968963558796</v>
+        <v>0.6934799615068747</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4322138775788533</v>
+        <v>0.1973159256428099</v>
       </c>
       <c r="E20" t="n">
         <v>28</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.4971468072690615</v>
+        <v>0.1802253261610935</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1392976011276689</v>
+        <v>0.5436721753856619</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2638040190192401</v>
+        <v>0.2761024984532444</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.860328101968648</v>
+        <v>0.07806237616320701</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.4964316204560818</v>
+        <v>0.4274755676580012</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1071531728248585</v>
+        <v>0.4944620561787917</v>
       </c>
       <c r="E22" t="n">
         <v>29</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.7098278213800173</v>
+        <v>0.08928530963450737</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4897939268181547</v>
+        <v>0.5389906907748963</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1499386572477237</v>
+        <v>0.371723999590596</v>
       </c>
       <c r="E23" t="n">
         <v>29</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.8726164225643205</v>
+        <v>0.05185880030114572</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.7194361477704264</v>
+        <v>0.4876258145381371</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002752532054195608</v>
+        <v>0.4605153851607171</v>
       </c>
       <c r="E24" t="n">
         <v>29</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.091780332994873</v>
+        <v>0.04699444826494731</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.643157267102015</v>
+        <v>0.4557754138739101</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.07156482869884669</v>
+        <v>0.4972301378611425</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.516386531996204</v>
+        <v>0.008617277589020266</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.247440381181537</v>
+        <v>0.1855911008230625</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.7063541174907683</v>
+        <v>0.8057916215879171</v>
       </c>
       <c r="E26" t="n">
         <v>29</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.5122996968624423</v>
+        <v>0.1615366165667449</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2309616158414401</v>
+        <v>0.5215866158508492</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1951046670801803</v>
+        <v>0.316876767582406</v>
       </c>
       <c r="E27" t="n">
         <v>29</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.3744672112529204</v>
+        <v>0.1820407919311151</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2702825261368845</v>
+        <v>0.4168032850157166</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01713326443728376</v>
+        <v>0.4011559230531682</v>
       </c>
       <c r="E28" t="n">
         <v>29</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.6188420957051053</v>
+        <v>0.1273685823336775</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2901779906008132</v>
+        <v>0.6183286319746166</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3972322598036515</v>
+        <v>0.2543027856917057</v>
       </c>
       <c r="E29" t="n">
         <v>29</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.533071813514269</v>
+        <v>0.008911162070300911</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.262553965268669</v>
+        <v>0.4056671539712993</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1956127018331484</v>
+        <v>0.5854216839583998</v>
       </c>
       <c r="E30" t="n">
         <v>29</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.7809609208728718</v>
+        <v>0.01509103054151981</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.157810907300717</v>
+        <v>0.05595957324266677</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.334705163155057</v>
+        <v>0.9289493962158133</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.9097494640097639</v>
+        <v>0.03312558977930591</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.8845137282960168</v>
+        <v>0.2582401845826942</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.4944080469448194</v>
+        <v>0.708634225638</v>
       </c>
       <c r="E32" t="n">
         <v>29</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.6994868612828642</v>
+        <v>0.1031341637142688</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.4087903769330582</v>
+        <v>0.4949860467233405</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06142876031371018</v>
+        <v>0.4018797895623908</v>
       </c>
       <c r="E33" t="n">
         <v>29</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6309062561950898</v>
+        <v>0.007945974160107283</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.376674166654442</v>
+        <v>0.02287516797715879</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.770326669435029</v>
+        <v>0.9691788578627338</v>
       </c>
       <c r="E34" t="n">
         <v>29</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4643047048658249</v>
+        <v>0.1066669217288428</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.5435297727352578</v>
+        <v>0.3299296603903997</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2717163356455712</v>
+        <v>0.5634034178807578</v>
       </c>
       <c r="E35" t="n">
         <v>29</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.8982265525342827</v>
+        <v>0.04752024005351871</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.7536324027013309</v>
+        <v>0.4073903273861189</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1607380239991086</v>
+        <v>0.5450894325603619</v>
       </c>
       <c r="E36" t="n">
         <v>29</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.09283808087487</v>
+        <v>0.02924489933251519</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.8837109339471171</v>
+        <v>0.3305296686575122</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3336483002824691</v>
+        <v>0.6402254320099726</v>
       </c>
       <c r="E37" t="n">
         <v>29</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.5104008640007722</v>
+        <v>0.1325002557691351</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3899028498621563</v>
+        <v>0.4063678290829722</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.09425787045967822</v>
+        <v>0.461131915147893</v>
       </c>
       <c r="E38" t="n">
         <v>29</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.5694310441638637</v>
+        <v>0.02902107047802726</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.007013494633643</v>
+        <v>0.09320139798504962</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.069739922820339</v>
+        <v>0.877777531536923</v>
       </c>
       <c r="E39" t="n">
         <v>29</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.216177640854866</v>
+        <v>0.03361426494942635</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.726789547852181</v>
+        <v>0.5420643842229658</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08584486783487237</v>
+        <v>0.424321350827608</v>
       </c>
       <c r="E40" t="n">
         <v>29</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.7134097210773123</v>
+        <v>0.04670942485110977</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.828876133864202</v>
+        <v>0.260257246025451</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.4798958272457055</v>
+        <v>0.6930333291234393</v>
       </c>
       <c r="E41" t="n">
         <v>29</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.6499438428854207</v>
+        <v>0.1502653643884524</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.01200659213003819</v>
+        <v>0.7017094632967834</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6697315716139017</v>
+        <v>0.1480251723147642</v>
       </c>
       <c r="E42" t="n">
         <v>29</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4108031028645061</v>
+        <v>0.2205766818222</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.01963100993070854</v>
+        <v>0.577605732059246</v>
       </c>
       <c r="D43" t="n">
-        <v>0.451348392582368</v>
+        <v>0.2018175861185542</v>
       </c>
       <c r="E43" t="n">
         <v>29</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.925655155660053</v>
+        <v>0.02093984689099673</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.075958890656213</v>
+        <v>0.1975418633339856</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.6609242238710989</v>
+        <v>0.7815182897750177</v>
       </c>
       <c r="E44" t="n">
         <v>29</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.7363700062724805</v>
+        <v>0.03823057574305681</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.8836281343525089</v>
+        <v>0.1885041841503505</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.6830714267716543</v>
+        <v>0.7732652401065927</v>
       </c>
       <c r="E45" t="n">
         <v>29</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.681009465331471</v>
+        <v>0.005420697030247391</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.387187169922956</v>
+        <v>0.1888385910613243</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.6979740075470103</v>
+        <v>0.8057407119084282</v>
       </c>
       <c r="E46" t="n">
         <v>29</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3544891722018375</v>
+        <v>0.387097537766741</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1113985721555538</v>
+        <v>0.1517427711106908</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.5232705499850495</v>
+        <v>0.4611596911225681</v>
       </c>
       <c r="E47" t="n">
         <v>29</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06966970426623192</v>
+        <v>0.5316883052722138</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5395060325867119</v>
+        <v>0.4188026764885512</v>
       </c>
       <c r="D48" t="n">
-        <v>1.151871992894492</v>
+        <v>0.0495090182392349</v>
       </c>
       <c r="E48" t="n">
         <v>30</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.7662617603365904</v>
+        <v>0.1005477344799668</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.3522277419435541</v>
+        <v>0.5689112511803934</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2144658550554583</v>
+        <v>0.3305410143396399</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.9217121275361679</v>
+        <v>0.06111782938761547</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.5704467592184587</v>
+        <v>0.5208416164725865</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07238748177454839</v>
+        <v>0.4180405541397978</v>
       </c>
       <c r="E50" t="n">
         <v>30</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.878076085464272</v>
+        <v>0.006806383406779917</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.018743315779321</v>
+        <v>0.8151250027909488</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6790236061751146</v>
+        <v>0.1780686138022714</v>
       </c>
       <c r="E51" t="n">
         <v>30</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.6007552455003806</v>
+        <v>0.1802887200790038</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2603236983255753</v>
+        <v>0.7214096857965295</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7817741373316879</v>
+        <v>0.09830159412446655</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.6190649451556285</v>
+        <v>0.1747514008043154</v>
       </c>
       <c r="C53" t="n">
-        <v>0.364752484271048</v>
+        <v>0.7836834693444079</v>
       </c>
       <c r="D53" t="n">
-        <v>1.325699176316512</v>
+        <v>0.04156512985127706</v>
       </c>
       <c r="E53" t="n">
         <v>30</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.4738208454981535</v>
+        <v>0.2342722953254819</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5889382710131029</v>
+        <v>0.7329216844001711</v>
       </c>
       <c r="D54" t="n">
-        <v>1.322013750099196</v>
+        <v>0.0328060202743469</v>
       </c>
       <c r="E54" t="n">
         <v>30</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.8972056689661516</v>
+        <v>0.08906095678892161</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.2032508394193856</v>
+        <v>0.7321416981923492</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6105858287210354</v>
+        <v>0.1787973450187291</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.6402641433246716</v>
+        <v>0.1659886813720443</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2501626573693413</v>
+        <v>0.747768442925808</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8780348091348104</v>
+        <v>0.08624287570214761</v>
       </c>
       <c r="E56" t="n">
         <v>30</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.7203901808005926</v>
+        <v>0.1544968286602638</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1854099870671148</v>
+        <v>0.6862194216335009</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4890695055446132</v>
+        <v>0.1592837497062353</v>
       </c>
       <c r="E57" t="n">
         <v>30</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.814142237562663</v>
+        <v>0.006615574559122556</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.235092818174283</v>
+        <v>0.5645148037627643</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1015752360934742</v>
+        <v>0.4288696216781129</v>
       </c>
       <c r="E58" t="n">
         <v>30</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.41924363524133</v>
+        <v>0.02150975452901886</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.9295158159652205</v>
+        <v>0.218875407011753</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.6050907867123313</v>
+        <v>0.7596148384592283</v>
       </c>
       <c r="E59" t="n">
         <v>30</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4386082929163425</v>
+        <v>0.2400041942103303</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1991309233404449</v>
+        <v>0.5990567514580272</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4565893029800565</v>
+        <v>0.1609390543316429</v>
       </c>
       <c r="E60" t="n">
         <v>30</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4312261046381278</v>
+        <v>0.7565465442277594</v>
       </c>
       <c r="C61" t="n">
-        <v>1.334874336381358</v>
+        <v>0.2344686629639332</v>
       </c>
       <c r="D61" t="n">
-        <v>1.343745935050215</v>
+        <v>0.008984792808307641</v>
       </c>
       <c r="E61" t="n">
         <v>30</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2955643460253438</v>
+        <v>0.6503925825662686</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6404636649176579</v>
+        <v>0.2697727702037744</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3665199843602453</v>
+        <v>0.0798346472299568</v>
       </c>
       <c r="E62" t="n">
         <v>30</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.039593099490873</v>
+        <v>0.03819832417208141</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7771319925186079</v>
+        <v>0.4269582232028985</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1316076100834563</v>
+        <v>0.5348434526250203</v>
       </c>
       <c r="E63" t="n">
         <v>30</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9297351754211436</v>
+        <v>0.07724948577160479</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.2516174761156295</v>
+        <v>0.7717873422563398</v>
       </c>
       <c r="D64" t="n">
-        <v>0.730361580616851</v>
+        <v>0.1509631719720553</v>
       </c>
       <c r="E64" t="n">
         <v>30</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.8633945667415619</v>
+        <v>0.1062976685006266</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1080048268859487</v>
+        <v>0.6986746432710418</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5167158100069501</v>
+        <v>0.1950276882283316</v>
       </c>
       <c r="E65" t="n">
         <v>30</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04768595423632832</v>
+        <v>0.5320121084446263</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9160845999241586</v>
+        <v>0.4378677017493951</v>
       </c>
       <c r="D66" t="n">
-        <v>1.045751948601499</v>
+        <v>0.03012018980597865</v>
       </c>
       <c r="E66" t="n">
         <v>30</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.537840323665549</v>
+        <v>0.01722602720334561</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7893141094788264</v>
+        <v>0.7419990454837352</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4952769170192754</v>
+        <v>0.2407749273129191</v>
       </c>
       <c r="E67" t="n">
         <v>30</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.3818452683436109</v>
+        <v>0.1972213991742578</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.1989916760964435</v>
+        <v>0.4636618474944533</v>
       </c>
       <c r="D68" t="n">
-        <v>0.109423849791206</v>
+        <v>0.3391167533312888</v>
       </c>
       <c r="E68" t="n">
         <v>30</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.1840004393491486</v>
+        <v>0.3835107355058857</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6153505553681923</v>
+        <v>0.5690915710820745</v>
       </c>
       <c r="D69" t="n">
-        <v>1.035455662980319</v>
+        <v>0.04739769341203992</v>
       </c>
       <c r="E69" t="n">
         <v>30</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.627340783772937</v>
+        <v>0.0009760919238717919</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.853733545086871</v>
+        <v>0.4067349859908132</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1997960381293707</v>
+        <v>0.592288922085315</v>
       </c>
       <c r="E70" t="n">
         <v>30</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.4579470044896257</v>
+        <v>0.2373600251356983</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2798894378909834</v>
+        <v>0.6242303554008611</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5124613922334406</v>
+        <v>0.1384096194634405</v>
       </c>
       <c r="E71" t="n">
         <v>30</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.137852299334625</v>
+        <v>0.06452858214484491</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.3598549230232949</v>
+        <v>0.6258496587017759</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2780159862989608</v>
+        <v>0.3096217591533793</v>
       </c>
       <c r="E72" t="n">
         <v>30</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.18576143435314</v>
+        <v>0.008308726903246803</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.347751721037202</v>
+        <v>0.128585325111769</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.9080540319047471</v>
+        <v>0.8631059479849841</v>
       </c>
       <c r="E73" t="n">
         <v>30</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.331362848019325</v>
+        <v>0.02605989213324496</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.6808869235786007</v>
+        <v>0.7358360710459445</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4965581378861048</v>
+        <v>0.2381040368208106</v>
       </c>
       <c r="E74" t="n">
         <v>30</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.570996519304714</v>
+        <v>0.01335663308691012</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.8990332358669265</v>
+        <v>0.7647130772088643</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5476374767257327</v>
+        <v>0.2219302897042256</v>
       </c>
       <c r="E75" t="n">
         <v>30</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.083700746394044</v>
+        <v>0.0423641991907611</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.70430683112605</v>
+        <v>0.4232319030796439</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.137772170950292</v>
+        <v>0.534403897729595</v>
       </c>
       <c r="E76" t="n">
         <v>30</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.8124951819468722</v>
+        <v>0.08696666780720945</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.4113350595366428</v>
+        <v>0.5813302149634936</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2284234027209992</v>
+        <v>0.3317031172292971</v>
       </c>
       <c r="E77" t="n">
         <v>30</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.713725816229413</v>
+        <v>0.0105852481128867</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.056968770648428</v>
+        <v>0.5500492373011026</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07813113273102361</v>
+        <v>0.439365514586011</v>
       </c>
       <c r="E78" t="n">
         <v>30</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.087440098194122</v>
+        <v>0.05205895449525945</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.5037450380370417</v>
+        <v>0.656088694211558</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3451628340471233</v>
+        <v>0.2918523512931827</v>
       </c>
       <c r="E79" t="n">
         <v>30</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.240859444132525</v>
+        <v>0.03094163325620004</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.8137727016974766</v>
+        <v>0.297385879274064</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.4072746980870717</v>
+        <v>0.6716724874697363</v>
       </c>
       <c r="E80" t="n">
         <v>30</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.353212563816641</v>
+        <v>0.00910304798279545</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.281799630991205</v>
+        <v>0.2007120072629435</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.6608078619337404</v>
+        <v>0.790184944754261</v>
       </c>
       <c r="E81" t="n">
         <v>30</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.485330901364975</v>
+        <v>0.0259348972411818</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.5403884821169983</v>
+        <v>0.7758534342364245</v>
       </c>
       <c r="D82" t="n">
-        <v>0.601483938485906</v>
+        <v>0.1982116685223939</v>
       </c>
       <c r="E82" t="n">
         <v>30</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.737099611916477</v>
+        <v>0.01228493308462971</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8894934498543025</v>
+        <v>0.7359835961346802</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4710310206764705</v>
+        <v>0.2517314707806901</v>
       </c>
       <c r="E83" t="n">
         <v>30</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.666685960005708</v>
+        <v>0.02264293650277348</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.6848325640589538</v>
+        <v>0.6466062092459671</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2815614044790424</v>
+        <v>0.3307508542512592</v>
       </c>
       <c r="E84" t="n">
         <v>30</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.184226626881497</v>
+        <v>0.04622517118088398</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.5566556470618907</v>
+        <v>0.5939752010257668</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2005336375053945</v>
+        <v>0.359799627793349</v>
       </c>
       <c r="E85" t="n">
         <v>30</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.437587098534408</v>
+        <v>0.02347044013348059</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.7537410255524749</v>
+        <v>0.6413812594713102</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2736215625087583</v>
+        <v>0.335148300395209</v>
       </c>
       <c r="E86" t="n">
         <v>30</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.075797795496684</v>
+        <v>0.0386624837671197</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.745446827712175</v>
+        <v>0.4766465097992618</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.03499243550881899</v>
+        <v>0.4846910064336185</v>
       </c>
       <c r="E87" t="n">
         <v>30</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.658320630687854</v>
+        <v>0.153626351447101</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.03754624615064317</v>
+        <v>0.6387278001002088</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4349598430673255</v>
+        <v>0.2076458484526902</v>
       </c>
       <c r="E88" t="n">
         <v>30</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9559123603780362</v>
+        <v>0.9215672861878125</v>
       </c>
       <c r="C89" t="n">
-        <v>1.592842399926309</v>
+        <v>0.07499413182403472</v>
       </c>
       <c r="D89" t="n">
-        <v>1.340593276097231</v>
+        <v>0.003438581988153128</v>
       </c>
       <c r="E89" t="n">
         <v>30</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.252152678790296</v>
+        <v>0.0364809962583369</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.4247047149057183</v>
+        <v>0.8276653277718319</v>
       </c>
       <c r="D90" t="n">
-        <v>0.81017454336574</v>
+        <v>0.1358536759698313</v>
       </c>
       <c r="E90" t="n">
         <v>30</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.5461860683432749</v>
+        <v>0.1711015763219426</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1270797766400337</v>
+        <v>0.5592976007503689</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2777275747650735</v>
+        <v>0.2696008229276881</v>
       </c>
       <c r="E91" t="n">
         <v>30</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.9558935245969737</v>
+        <v>0.08050417690149082</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.3185879631750937</v>
+        <v>0.6436191435052881</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3478574495083039</v>
+        <v>0.2758766795932208</v>
       </c>
       <c r="E92" t="n">
         <v>30</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.477514182767763</v>
+        <v>0.02616926676214889</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.2868305358512971</v>
+        <v>0.9019173044335674</v>
       </c>
       <c r="D93" t="n">
-        <v>1.136029212648644</v>
+        <v>0.0719134288042837</v>
       </c>
       <c r="E93" t="n">
         <v>30</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.151465857413911</v>
+        <v>0.03013332740882276</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.8379099396666762</v>
+        <v>0.4512441090397681</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.09109773608836476</v>
+        <v>0.518622563551409</v>
       </c>
       <c r="E94" t="n">
         <v>30</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.7114162416810503</v>
+        <v>0.1531987946181051</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6748426972184488</v>
+        <v>0.7604786262861282</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6757083905547675</v>
+        <v>0.0863225790957666</v>
       </c>
       <c r="E95" t="n">
         <v>30</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.075068952659152</v>
+        <v>0.009462650791458731</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.247845323797907</v>
+        <v>0.07073484559881256</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.21661537072972</v>
+        <v>0.9198025036097286</v>
       </c>
       <c r="E96" t="n">
         <v>31</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.201876086712631</v>
+        <v>0.0109065595007894</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.232000549411981</v>
+        <v>0.1449905188612318</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.8425717579523492</v>
+        <v>0.8441029216379787</v>
       </c>
       <c r="E97" t="n">
         <v>31</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.687563133747219</v>
+        <v>0.002082612275730755</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.70074505554334</v>
+        <v>0.07241599853993536</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.206093289312157</v>
+        <v>0.925501389184334</v>
       </c>
       <c r="E98" t="n">
         <v>31</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.095845740457392</v>
+        <v>0.00482722836482051</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.45039896364668</v>
+        <v>0.0458012721358533</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.432006834324205</v>
+        <v>0.9493714994993262</v>
       </c>
       <c r="E99" t="n">
         <v>31</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.65358173299434</v>
+        <v>0.004135295585262784</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.496064709692735</v>
+        <v>0.1610976804133481</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.7878969514709907</v>
+        <v>0.8347670240013892</v>
       </c>
       <c r="E100" t="n">
         <v>31</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.6772257785538047</v>
+        <v>0.01635087785036725</v>
       </c>
       <c r="C101" t="n">
-        <v>-1.155679304790428</v>
+        <v>0.05441536181178403</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.347987982352187</v>
+        <v>0.929233760337849</v>
       </c>
       <c r="E101" t="n">
         <v>31</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.9737588837418232</v>
+        <v>0.02166280143482281</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.015877270837354</v>
+        <v>0.1308268108259977</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.8955061987682241</v>
+        <v>0.8475103877391794</v>
       </c>
       <c r="E102" t="n">
         <v>31</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-3.317100940839112</v>
+        <v>0.0007608624370790476</v>
       </c>
       <c r="C103" t="n">
-        <v>-2.747614848492293</v>
+        <v>0.04217846197962753</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.470951260985792</v>
+        <v>0.9570606755832933</v>
       </c>
       <c r="E103" t="n">
         <v>31</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.8162605949726187</v>
+        <v>0.03192176185782852</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.9194965723557432</v>
+        <v>0.1611323112777504</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.7770225503522353</v>
+        <v>0.8069459268644211</v>
       </c>
       <c r="E104" t="n">
         <v>31</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-2.458950541613007</v>
+        <v>0.0007273105339248824</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.009992092808918</v>
+        <v>0.2242002456310895</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.6002991219571426</v>
+        <v>0.7750724438349857</v>
       </c>
       <c r="E105" t="n">
         <v>31</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.902278568940517</v>
+        <v>0.003183898755719883</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.591812892126402</v>
+        <v>0.3705240892727356</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.268843684511104</v>
+        <v>0.6262920119715445</v>
       </c>
       <c r="E106" t="n">
         <v>31</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.7464212651524493</v>
+        <v>0.120531658932375</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.2381437363902877</v>
+        <v>0.555570594845965</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1884972367031212</v>
+        <v>0.3238977462216598</v>
       </c>
       <c r="E107" t="n">
         <v>31</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.586501970690932</v>
+        <v>0.001046405437027132</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.875407504252439</v>
+        <v>0.01787691433842104</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.881358325796604</v>
+        <v>0.981076680224552</v>
       </c>
       <c r="E108" t="n">
         <v>31</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.161516641893442</v>
+        <v>0.01434647289998622</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.189249971268598</v>
+        <v>0.2599622882835553</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.5012361512615157</v>
+        <v>0.7256912388164584</v>
       </c>
       <c r="E109" t="n">
         <v>31</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.189384290183242</v>
+        <v>0.03387267122411331</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.7800537226858525</v>
+        <v>0.3560461983712142</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.2789409024346055</v>
+        <v>0.6100811304046725</v>
       </c>
       <c r="E110" t="n">
         <v>31</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.9866427762829491</v>
+        <v>0.04133045086926525</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.7636865636526723</v>
+        <v>0.286704331619389</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.4250783666296128</v>
+        <v>0.6719652175113457</v>
       </c>
       <c r="E111" t="n">
         <v>31</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.741666228164661</v>
+        <v>0.001674104458910455</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.970523804605566</v>
+        <v>0.05206397811016063</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.367851020308173</v>
+        <v>0.9462619174309288</v>
       </c>
       <c r="E112" t="n">
         <v>31</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-2.03219388668336</v>
+        <v>0.0001469338255647943</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.460285456567124</v>
+        <v>0.007649648179856811</v>
       </c>
       <c r="D113" t="n">
-        <v>-2.279446345825242</v>
+        <v>0.9922034179945787</v>
       </c>
       <c r="E113" t="n">
         <v>31</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.548653585978102</v>
+        <v>0.0008365064055481871</v>
       </c>
       <c r="C114" t="n">
-        <v>-2.073023567612768</v>
+        <v>0.02951248071963909</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.643019065135426</v>
+        <v>0.9696510128748129</v>
       </c>
       <c r="E114" t="n">
         <v>31</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.334550561832487</v>
+        <v>0.004675363335308745</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.525717554132032</v>
+        <v>0.07115490676020202</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.212055162384338</v>
+        <v>0.9241697299044892</v>
       </c>
       <c r="E115" t="n">
         <v>31</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.276275800740209</v>
+        <v>0.002207969039677175</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.657479834660737</v>
+        <v>0.02424024630313665</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.738071327224226</v>
+        <v>0.9735517846571862</v>
       </c>
       <c r="E116" t="n">
         <v>31</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1707893965231617</v>
+        <v>0.5230089034282785</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2555071221179587</v>
+        <v>0.3298931222378672</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4616118137800173</v>
+        <v>0.1470979743338544</v>
       </c>
       <c r="E117" t="n">
         <v>32</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2801988262588535</v>
+        <v>0.6253877041095541</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5137421127033802</v>
+        <v>0.2635267363815183</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2160228915017301</v>
+        <v>0.1110855595089275</v>
       </c>
       <c r="E118" t="n">
         <v>32</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3591971212972706</v>
+        <v>0.7013099928347291</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8181737490553017</v>
+        <v>0.2588050617854493</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7560027123113359</v>
+        <v>0.03988494537982163</v>
       </c>
       <c r="E119" t="n">
         <v>32</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.378542803479277</v>
+        <v>0.7338717467723491</v>
       </c>
       <c r="C120" t="n">
-        <v>1.355941503099015</v>
+        <v>0.2603945232231831</v>
       </c>
       <c r="D120" t="n">
-        <v>1.717453768159025</v>
+        <v>0.005733730004467751</v>
       </c>
       <c r="E120" t="n">
         <v>32</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.234698002494184</v>
+        <v>0.6455490055337889</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9422665366190129</v>
+        <v>0.32986388780169</v>
       </c>
       <c r="D121" t="n">
-        <v>1.091235028624347</v>
+        <v>0.02458710666452103</v>
       </c>
       <c r="E121" t="n">
         <v>32</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0826098279580802</v>
+        <v>0.5081190970836523</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3574497448397379</v>
+        <v>0.3868869602291832</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6540145811691006</v>
+        <v>0.1049939426871642</v>
       </c>
       <c r="E122" t="n">
         <v>32</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.9492734458487606</v>
+        <v>0.07957893400480091</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.211339723685103</v>
+        <v>0.760134257455207</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6816843175639705</v>
+        <v>0.1602868085399919</v>
       </c>
       <c r="E123" t="n">
         <v>32</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7195418223340224</v>
+        <v>0.8620850484418946</v>
       </c>
       <c r="C124" t="n">
-        <v>1.338225516961327</v>
+        <v>0.1276861059431617</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9851368137357427</v>
+        <v>0.01022884561494351</v>
       </c>
       <c r="E124" t="n">
         <v>32</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2239998422542297</v>
+        <v>0.6291410982577922</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7352020539466052</v>
+        <v>0.3302164200035001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9383216320195161</v>
+        <v>0.04064248173870761</v>
       </c>
       <c r="E125" t="n">
         <v>32</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5119242533443609</v>
+        <v>0.7964067842635087</v>
       </c>
       <c r="C126" t="n">
-        <v>1.576179732993336</v>
+        <v>0.2010739165671986</v>
       </c>
       <c r="D126" t="n">
-        <v>2.046925568960582</v>
+        <v>0.00251929916929253</v>
       </c>
       <c r="E126" t="n">
         <v>32</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3594095167084245</v>
+        <v>0.7041224981427954</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8161698041060644</v>
+        <v>0.2616689465712559</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9121447084386533</v>
+        <v>0.0342085552859488</v>
       </c>
       <c r="E127" t="n">
         <v>32</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.09992864001900187</v>
+        <v>0.4301193982343775</v>
       </c>
       <c r="C128" t="n">
-        <v>0.61152415734048</v>
+        <v>0.4991941567244454</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7054673045310197</v>
+        <v>0.07068644504117677</v>
       </c>
       <c r="E128" t="n">
         <v>32</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.3274399686476815</v>
+        <v>0.3001779556050757</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4200009467105131</v>
+        <v>0.6289742591610616</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9142099088530885</v>
+        <v>0.07084778523386258</v>
       </c>
       <c r="E129" t="n">
         <v>32</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.08419540492101901</v>
+        <v>0.4406248603262343</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5641896957702072</v>
+        <v>0.508973727424469</v>
       </c>
       <c r="D130" t="n">
-        <v>1.04995127403469</v>
+        <v>0.05040141224929676</v>
       </c>
       <c r="E130" t="n">
         <v>32</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.02749946674987286</v>
+        <v>0.5071991377584929</v>
       </c>
       <c r="C131" t="n">
-        <v>0.575787588417097</v>
+        <v>0.4410764553280155</v>
       </c>
       <c r="D131" t="n">
-        <v>1.009988680239367</v>
+        <v>0.05172440691349144</v>
       </c>
       <c r="E131" t="n">
         <v>32</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.4843364529199763</v>
+        <v>0.2079405946411145</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0982761678263101</v>
+        <v>0.6871340244732896</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8843926868129658</v>
+        <v>0.1049253808855957</v>
       </c>
       <c r="E132" t="n">
         <v>32</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.918087071350598</v>
+        <v>0.9143495167388418</v>
       </c>
       <c r="C133" t="n">
-        <v>1.493293760883628</v>
+        <v>0.08199080531726197</v>
       </c>
       <c r="D133" t="n">
-        <v>1.493575212464315</v>
+        <v>0.003659677943896124</v>
       </c>
       <c r="E133" t="n">
         <v>32</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1879306903427104</v>
+        <v>0.6222257663253475</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8914190074387106</v>
+        <v>0.3597271079596158</v>
       </c>
       <c r="D134" t="n">
-        <v>1.51325509090659</v>
+        <v>0.01804712571503664</v>
       </c>
       <c r="E134" t="n">
         <v>32</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1657886884646442</v>
+        <v>0.6084027611706475</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8253299913828697</v>
+        <v>0.3725683169049124</v>
       </c>
       <c r="D135" t="n">
-        <v>1.656395181779637</v>
+        <v>0.01902892192444027</v>
       </c>
       <c r="E135" t="n">
         <v>32</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.2703987142816689</v>
+        <v>0.3213356800830721</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2730041971447973</v>
+        <v>0.4971225455600503</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2544536011448388</v>
+        <v>0.1815417743568773</v>
       </c>
       <c r="E136" t="n">
         <v>32</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4350152718934336</v>
+        <v>0.7522268683911931</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9877723874652814</v>
+        <v>0.2313182939113352</v>
       </c>
       <c r="D137" t="n">
-        <v>1.317896802173898</v>
+        <v>0.0164548376974718</v>
       </c>
       <c r="E137" t="n">
         <v>32</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.8779078973594923</v>
+        <v>0.09996074698351656</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2750126561279244</v>
+        <v>0.8645027650049322</v>
       </c>
       <c r="D138" t="n">
-        <v>1.420846574213634</v>
+        <v>0.03553648801155102</v>
       </c>
       <c r="E138" t="n">
         <v>32</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1995184652255941</v>
+        <v>0.6095892285084592</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7155308327750843</v>
+        <v>0.3344135159232267</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6721082310276146</v>
+        <v>0.05599725556831398</v>
       </c>
       <c r="E139" t="n">
         <v>32</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.03424112913350569</v>
+        <v>0.4659479026514697</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5026083496078796</v>
+        <v>0.4751468698221158</v>
       </c>
       <c r="D140" t="n">
-        <v>1.003920023327091</v>
+        <v>0.05890522752641441</v>
       </c>
       <c r="E140" t="n">
         <v>32</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.2613762558772808</v>
+        <v>0.3360902498947314</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4768376826423518</v>
+        <v>0.5848918756195418</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7703464448576584</v>
+        <v>0.07901787448572675</v>
       </c>
       <c r="E141" t="n">
         <v>32</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3382822065291433</v>
+        <v>0.7028520896524455</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9184863456141242</v>
+        <v>0.2765848055323653</v>
       </c>
       <c r="D142" t="n">
-        <v>1.260877531629682</v>
+        <v>0.02056310481518922</v>
       </c>
       <c r="E142" t="n">
         <v>32</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.06358266951012609</v>
+        <v>0.4654801134470745</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8951136952059043</v>
+        <v>0.5130738552361399</v>
       </c>
       <c r="D143" t="n">
-        <v>1.358197116892647</v>
+        <v>0.0214460313167856</v>
       </c>
       <c r="E143" t="n">
         <v>32</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3641456183589608</v>
+        <v>0.6845620361556376</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6260851708917384</v>
+        <v>0.249423346482865</v>
       </c>
       <c r="D144" t="n">
-        <v>0.569436933053531</v>
+        <v>0.06601461736149708</v>
       </c>
       <c r="E144" t="n">
         <v>32</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.09937663145032588</v>
+        <v>0.5617860481467989</v>
       </c>
       <c r="C145" t="n">
-        <v>0.8608122909298258</v>
+        <v>0.404217344847816</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9799133145174538</v>
+        <v>0.03399660700538522</v>
       </c>
       <c r="E145" t="n">
         <v>32</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.4333665193821045</v>
+        <v>0.7526768641218142</v>
       </c>
       <c r="C146" t="n">
-        <v>1.0426801369082</v>
+        <v>0.2322485804916453</v>
       </c>
       <c r="D146" t="n">
-        <v>1.291149486910861</v>
+        <v>0.01507455538654038</v>
       </c>
       <c r="E146" t="n">
         <v>32</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5345348633661471</v>
+        <v>0.7937501516466314</v>
       </c>
       <c r="C147" t="n">
-        <v>1.034325820032873</v>
+        <v>0.1891387271258709</v>
       </c>
       <c r="D147" t="n">
-        <v>1.112853634024724</v>
+        <v>0.01711112122749757</v>
       </c>
       <c r="E147" t="n">
         <v>32</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3737861490170926</v>
+        <v>0.7254553555565059</v>
       </c>
       <c r="C148" t="n">
-        <v>1.152883881482876</v>
+        <v>0.2601486208918121</v>
       </c>
       <c r="D148" t="n">
-        <v>1.203736353923496</v>
+        <v>0.01439602355168174</v>
       </c>
       <c r="E148" t="n">
         <v>32</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.02904770885113833</v>
+        <v>0.467255571347991</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5002838279935814</v>
+        <v>0.4671654458379364</v>
       </c>
       <c r="D149" t="n">
-        <v>0.8970622539312459</v>
+        <v>0.06557898281407269</v>
       </c>
       <c r="E149" t="n">
         <v>32</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.423469124662503</v>
+        <v>0.7479195861674851</v>
       </c>
       <c r="C150" t="n">
-        <v>1.10072990850858</v>
+        <v>0.2362607249912007</v>
       </c>
       <c r="D150" t="n">
-        <v>1.153985511433909</v>
+        <v>0.01581968884131425</v>
       </c>
       <c r="E150" t="n">
         <v>32</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.4792069624081282</v>
+        <v>0.1723855332008186</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.2031043217534746</v>
+        <v>0.5319722493124891</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2410569289089539</v>
+        <v>0.2956422174866924</v>
       </c>
       <c r="E151" t="n">
         <v>32</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.1219040738316156</v>
+        <v>0.4228973780149961</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6498614693972767</v>
+        <v>0.5399095764270695</v>
       </c>
       <c r="D152" t="n">
-        <v>1.202519951110866</v>
+        <v>0.03719304555793439</v>
       </c>
       <c r="E152" t="n">
         <v>32</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.09672112590462206</v>
+        <v>0.5684697982353276</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9488356122768918</v>
+        <v>0.4149822801087713</v>
       </c>
       <c r="D153" t="n">
-        <v>1.488862366214811</v>
+        <v>0.01654792165590132</v>
       </c>
       <c r="E153" t="n">
         <v>32</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.9349842699112829</v>
+        <v>0.001225732352632755</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.864941730007135</v>
+        <v>0.02023711094898504</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.822591446484615</v>
+        <v>0.978537156698382</v>
       </c>
       <c r="E154" t="n">
         <v>33</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.079233271803659</v>
+        <v>0.0136811268417892</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.368737395254829</v>
+        <v>0.3039573884865097</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.3992057206800366</v>
+        <v>0.682361484671701</v>
       </c>
       <c r="E155" t="n">
         <v>33</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.5485332190478547</v>
+        <v>0.1110621548670209</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.4850222272149723</v>
+        <v>0.565812735213589</v>
       </c>
       <c r="D156" t="n">
-        <v>0.260845616232878</v>
+        <v>0.3231251099193901</v>
       </c>
       <c r="E156" t="n">
         <v>33</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.4282930384127471</v>
+        <v>0.1493258062181238</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.3696036377135415</v>
+        <v>0.4574978954147579</v>
       </c>
       <c r="D157" t="n">
-        <v>0.05802402796441457</v>
+        <v>0.3931762983671184</v>
       </c>
       <c r="E157" t="n">
         <v>33</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.2376233882879578</v>
+        <v>0.3330509590306102</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2391907691218732</v>
+        <v>0.5923606926951281</v>
       </c>
       <c r="D158" t="n">
-        <v>1.175479954813504</v>
+        <v>0.07458834827426156</v>
       </c>
       <c r="E158" t="n">
         <v>33</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.2300198666838187</v>
+        <v>0.331363825278051</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2511784041436412</v>
+        <v>0.5557922959054462</v>
       </c>
       <c r="D159" t="n">
-        <v>0.7146820082716873</v>
+        <v>0.1128438788165029</v>
       </c>
       <c r="E159" t="n">
         <v>33</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.03371535459530123</v>
+        <v>0.5108738588568766</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6074506843080597</v>
+        <v>0.4339401669293654</v>
       </c>
       <c r="D160" t="n">
-        <v>0.8920096464592647</v>
+        <v>0.05518597421375782</v>
       </c>
       <c r="E160" t="n">
         <v>33</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.2275605742942585</v>
+        <v>0.6490615113109361</v>
       </c>
       <c r="C161" t="n">
-        <v>1.040476824250828</v>
+        <v>0.3388520942841824</v>
       </c>
       <c r="D161" t="n">
-        <v>1.616882937908351</v>
+        <v>0.01208639440488127</v>
       </c>
       <c r="E161" t="n">
         <v>33</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.9249279462190574</v>
+        <v>0.04605520520539684</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.7433460169143048</v>
+        <v>0.407969960538535</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.1621323230778058</v>
+        <v>0.5459748342560684</v>
       </c>
       <c r="E162" t="n">
         <v>33</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.269359997272901</v>
+        <v>0.00647358007371217</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.39619657706206</v>
+        <v>0.1004506665984542</v>
       </c>
       <c r="D163" t="n">
-        <v>-1.038414605483844</v>
+        <v>0.8930757533278337</v>
       </c>
       <c r="E163" t="n">
         <v>33</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.4453520480695519</v>
+        <v>0.112423732529029</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.5598791964725537</v>
+        <v>0.4485914340874361</v>
       </c>
       <c r="D164" t="n">
-        <v>0.01081068048225846</v>
+        <v>0.4389848333835352</v>
       </c>
       <c r="E164" t="n">
         <v>33</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.711616698542983</v>
+        <v>0.1014955919823952</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.3315116910382899</v>
+        <v>0.7548762561216313</v>
       </c>
       <c r="D165" t="n">
-        <v>0.7952318005062226</v>
+        <v>0.1436281518959731</v>
       </c>
       <c r="E165" t="n">
         <v>33</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.04783923819854891</v>
+        <v>0.2752993975477996</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.1906925291460654</v>
+        <v>0.2960899273704694</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.1891170086655548</v>
+        <v>0.428610675081731</v>
       </c>
       <c r="E166" t="n">
         <v>33</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.698041958419225</v>
+        <v>0.09957409854423677</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.3998014782549036</v>
+        <v>0.6529679491380366</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4413765926811452</v>
+        <v>0.2474579523177265</v>
       </c>
       <c r="E167" t="n">
         <v>33</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.133999871606264</v>
+        <v>0.03323429791842132</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.7519745200567515</v>
+        <v>0.6991337548682875</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4218632019860211</v>
+        <v>0.2676319472132913</v>
       </c>
       <c r="E168" t="n">
         <v>33</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.090242889880088</v>
+        <v>0.03620823587603324</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.7166409425431114</v>
+        <v>0.7804829865294389</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6529527426829348</v>
+        <v>0.1833087775945281</v>
       </c>
       <c r="E169" t="n">
         <v>33</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.5314235110597283</v>
+        <v>0.1634216129086937</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.1432247489406707</v>
+        <v>0.7032362038473841</v>
       </c>
       <c r="D170" t="n">
-        <v>0.8373747261660399</v>
+        <v>0.1333421832439219</v>
       </c>
       <c r="E170" t="n">
         <v>33</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.7249487995775612</v>
+        <v>0.04894151675023981</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.848354285731307</v>
+        <v>0.3688140217043742</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.2324361499236643</v>
+        <v>0.5822444615453856</v>
       </c>
       <c r="E171" t="n">
         <v>33</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.375486487161851</v>
+        <v>0.0173520821781042</v>
       </c>
       <c r="C172" t="n">
-        <v>-1.014248074997627</v>
+        <v>0.6810324873526513</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3524743630985585</v>
+        <v>0.3016154304692444</v>
       </c>
       <c r="E172" t="n">
         <v>33</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.3059133551111162</v>
+        <v>0.2596224651558797</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.009538002999295414</v>
+        <v>0.6080275249692503</v>
       </c>
       <c r="D173" t="n">
-        <v>0.8449141721004098</v>
+        <v>0.1323500098748701</v>
       </c>
       <c r="E173" t="n">
         <v>33</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.3157700963659383</v>
+        <v>0.2503072530925982</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.04458627863748477</v>
+        <v>0.623581889803922</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9217294465990521</v>
+        <v>0.1261108571034799</v>
       </c>
       <c r="E174" t="n">
         <v>33</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.08300565211953909</v>
+        <v>0.4569667121692282</v>
       </c>
       <c r="C175" t="n">
-        <v>0.8342224474967536</v>
+        <v>0.5302300237825616</v>
       </c>
       <c r="D175" t="n">
-        <v>2.111693054103448</v>
+        <v>0.01280326404821031</v>
       </c>
       <c r="E175" t="n">
         <v>33</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.8983125107306054</v>
+        <v>0.05457977840868019</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.6566702459928878</v>
+        <v>0.5980616212565278</v>
       </c>
       <c r="D176" t="n">
-        <v>0.2302901072802472</v>
+        <v>0.3473586003347922</v>
       </c>
       <c r="E176" t="n">
         <v>33</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.4025478874780364</v>
+        <v>0.08656646253701381</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.7077454175333772</v>
+        <v>0.3133570356415186</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.3065089875442551</v>
+        <v>0.6000765018214675</v>
       </c>
       <c r="E177" t="n">
         <v>33</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.8558392774584862</v>
+        <v>0.08020305377728336</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.2960918436812422</v>
+        <v>0.8029624063016778</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9036591287344536</v>
+        <v>0.1168345399210387</v>
       </c>
       <c r="E178" t="n">
         <v>33</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.0483530935141519</v>
+        <v>0.4221057044785964</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2451770103493059</v>
+        <v>0.4668736018830498</v>
       </c>
       <c r="D179" t="n">
-        <v>0.7836700464977541</v>
+        <v>0.1110206936383539</v>
       </c>
       <c r="E179" t="n">
         <v>33</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.6090804730900745</v>
+        <v>0.1159821907761135</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.408024755534686</v>
+        <v>0.4241341822436049</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.07675580867337557</v>
+        <v>0.4598836269802816</v>
       </c>
       <c r="E180" t="n">
         <v>33</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.6241811148593117</v>
+        <v>0.1043134771855516</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.4649094054648545</v>
+        <v>0.6955452655961107</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5998523984047425</v>
+        <v>0.2001412572183374</v>
       </c>
       <c r="E181" t="n">
         <v>33</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.5951078344232317</v>
+        <v>0.1677789952725348</v>
       </c>
       <c r="C182" t="n">
-        <v>0.07673424354822755</v>
+        <v>0.7638676071197668</v>
       </c>
       <c r="D182" t="n">
-        <v>1.223420814534159</v>
+        <v>0.06835339760769819</v>
       </c>
       <c r="E182" t="n">
         <v>33</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.08205173557300355</v>
+        <v>0.4348541861026675</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4154209575340501</v>
+        <v>0.509349046574227</v>
       </c>
       <c r="D183" t="n">
-        <v>1.25627677107709</v>
+        <v>0.05579676732310546</v>
       </c>
       <c r="E183" t="n">
         <v>33</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.08506802044674061</v>
+        <v>0.5628284950999499</v>
       </c>
       <c r="C184" t="n">
-        <v>1.024311213438818</v>
+        <v>0.4233875297464372</v>
       </c>
       <c r="D184" t="n">
-        <v>1.541687111588267</v>
+        <v>0.01378397515361259</v>
       </c>
       <c r="E184" t="n">
         <v>34</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.2282691642175936</v>
+        <v>0.3680226930126209</v>
       </c>
       <c r="C185" t="n">
-        <v>0.8325469435997773</v>
+        <v>0.6121775890694234</v>
       </c>
       <c r="D185" t="n">
-        <v>1.498581306522688</v>
+        <v>0.01979971791795566</v>
       </c>
       <c r="E185" t="n">
         <v>34</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.06813772250356492</v>
+        <v>0.46494565130059</v>
       </c>
       <c r="C186" t="n">
-        <v>1.004963766264265</v>
+        <v>0.5192631154935333</v>
       </c>
       <c r="D186" t="n">
-        <v>1.484912294891039</v>
+        <v>0.01579123320587679</v>
       </c>
       <c r="E186" t="n">
         <v>34</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.04355337518195795</v>
+        <v>0.4639933914473178</v>
       </c>
       <c r="C187" t="n">
-        <v>0.6255047382461042</v>
+        <v>0.4712381436455139</v>
       </c>
       <c r="D187" t="n">
-        <v>0.7467129616638389</v>
+        <v>0.06476846490716828</v>
       </c>
       <c r="E187" t="n">
         <v>34</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.0108002153049685</v>
+        <v>0.4999688066827957</v>
       </c>
       <c r="C188" t="n">
-        <v>0.8797326301718128</v>
+        <v>0.481321522600623</v>
       </c>
       <c r="D188" t="n">
-        <v>1.495055864700128</v>
+        <v>0.01870967071658138</v>
       </c>
       <c r="E188" t="n">
         <v>34</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.7031238181000818</v>
+        <v>0.1487236658220637</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3647652699406164</v>
+        <v>0.7851689719635614</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9739272560076914</v>
+        <v>0.06610736221437458</v>
       </c>
       <c r="E189" t="n">
         <v>34</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.1240153878560906</v>
+        <v>0.4117517501387293</v>
       </c>
       <c r="C190" t="n">
-        <v>0.5032943939016233</v>
+        <v>0.513899882413576</v>
       </c>
       <c r="D190" t="n">
-        <v>0.7802687349587175</v>
+        <v>0.07434836744769464</v>
       </c>
       <c r="E190" t="n">
         <v>34</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.599355703415412</v>
+        <v>0.818789482711954</v>
       </c>
       <c r="C191" t="n">
-        <v>1.105522929260343</v>
+        <v>0.1650280644091297</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9943288253574353</v>
+        <v>0.01618245287891632</v>
       </c>
       <c r="E191" t="n">
         <v>34</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.3516246204477088</v>
+        <v>0.2903908590191794</v>
       </c>
       <c r="C192" t="n">
-        <v>0.4809701473777862</v>
+        <v>0.6417761629031835</v>
       </c>
       <c r="D192" t="n">
-        <v>0.8886010516160995</v>
+        <v>0.067832978077637</v>
       </c>
       <c r="E192" t="n">
         <v>34</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.2605880355396974</v>
+        <v>0.6591636173461702</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9480754352626773</v>
+        <v>0.3148201891564302</v>
       </c>
       <c r="D193" t="n">
-        <v>1.022678183417817</v>
+        <v>0.02601619349739957</v>
       </c>
       <c r="E193" t="n">
         <v>34</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1387138689254212</v>
+        <v>0.5831831169862634</v>
       </c>
       <c r="C194" t="n">
-        <v>0.8602878754745232</v>
+        <v>0.3767690328244809</v>
       </c>
       <c r="D194" t="n">
-        <v>0.8327516060124439</v>
+        <v>0.04004785018925581</v>
       </c>
       <c r="E194" t="n">
         <v>34</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.5319172380473989</v>
+        <v>0.1706787234914247</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.1785975714072693</v>
+        <v>0.484211931677233</v>
       </c>
       <c r="D195" t="n">
-        <v>0.08599303193275191</v>
+        <v>0.3451093448313421</v>
       </c>
       <c r="E195" t="n">
         <v>34</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4170552738355579</v>
+        <v>0.7354792701467536</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9209026470048768</v>
+        <v>0.2349945439213785</v>
       </c>
       <c r="D196" t="n">
-        <v>0.8492656253540006</v>
+        <v>0.0295261859318679</v>
       </c>
       <c r="E196" t="n">
         <v>34</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.06187816409507746</v>
+        <v>0.4674491420130503</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9077815001147341</v>
+        <v>0.5132994872282717</v>
       </c>
       <c r="D197" t="n">
-        <v>1.431744599320347</v>
+        <v>0.01925137075867786</v>
       </c>
       <c r="E197" t="n">
         <v>34</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.5285781464122155</v>
+        <v>0.2092437150187762</v>
       </c>
       <c r="C198" t="n">
-        <v>0.3479058508451628</v>
+        <v>0.7287112951591477</v>
       </c>
       <c r="D198" t="n">
-        <v>1.058810407971287</v>
+        <v>0.06204498982207614</v>
       </c>
       <c r="E198" t="n">
         <v>34</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.676356105931575</v>
+        <v>0.1533385795800228</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.02056381989450828</v>
+        <v>0.6326510114976203</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4015108317997759</v>
+        <v>0.2140104089223565</v>
       </c>
       <c r="E199" t="n">
         <v>34</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.3103359215058251</v>
+        <v>0.3140792282882806</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6748272736602529</v>
+        <v>0.6396493672498377</v>
       </c>
       <c r="D200" t="n">
-        <v>1.012604389989015</v>
+        <v>0.04627140446188212</v>
       </c>
       <c r="E200" t="n">
         <v>34</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.1591897628872519</v>
+        <v>0.4095869151051129</v>
       </c>
       <c r="C201" t="n">
-        <v>0.8707449981576302</v>
+        <v>0.5714564649989684</v>
       </c>
       <c r="D201" t="n">
-        <v>1.492207254634174</v>
+        <v>0.01895661989591875</v>
       </c>
       <c r="E201" t="n">
         <v>34</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.1981078533030572</v>
+        <v>0.3763574771516601</v>
       </c>
       <c r="C202" t="n">
-        <v>0.663193482728954</v>
+        <v>0.5786424292272806</v>
       </c>
       <c r="D202" t="n">
-        <v>1.029459010484622</v>
+        <v>0.04500009362105935</v>
       </c>
       <c r="E202" t="n">
         <v>34</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.1085689068649319</v>
+        <v>0.4292282156468786</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6869895204720932</v>
+        <v>0.5234943982948699</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9553159732467479</v>
+        <v>0.04727738605825159</v>
       </c>
       <c r="E203" t="n">
         <v>34</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.8735999545339579</v>
+        <v>0.9069061662554641</v>
       </c>
       <c r="C204" t="n">
-        <v>1.772547403241117</v>
+        <v>0.09105130039333982</v>
       </c>
       <c r="D204" t="n">
-        <v>1.634160190957467</v>
+        <v>0.002042533351196332</v>
       </c>
       <c r="E204" t="n">
         <v>34</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1095155340766493</v>
+        <v>0.5785255760463802</v>
       </c>
       <c r="C205" t="n">
-        <v>1.143954817920669</v>
+        <v>0.4086276290748378</v>
       </c>
       <c r="D205" t="n">
-        <v>1.450772336708518</v>
+        <v>0.01284679487878196</v>
       </c>
       <c r="E205" t="n">
         <v>34</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.1920691361280123</v>
+        <v>0.3736584441351634</v>
       </c>
       <c r="C206" t="n">
-        <v>0.4953776726932771</v>
+        <v>0.5437026927233789</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7084728359409312</v>
+        <v>0.08263886314145752</v>
       </c>
       <c r="E206" t="n">
         <v>34</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.1881450688371873</v>
+        <v>0.3808260661108551</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6506662506788216</v>
+        <v>0.5614555081687049</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8515458982164078</v>
+        <v>0.05771842572044004</v>
       </c>
       <c r="E207" t="n">
         <v>34</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.355233546319113</v>
+        <v>0.2891741834622493</v>
       </c>
       <c r="C208" t="n">
-        <v>0.5166491506361522</v>
+        <v>0.6687223242532069</v>
       </c>
       <c r="D208" t="n">
-        <v>1.229957520080156</v>
+        <v>0.04210349228454355</v>
       </c>
       <c r="E208" t="n">
         <v>34</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.03825427809914544</v>
+        <v>0.5281281322921387</v>
       </c>
       <c r="C209" t="n">
-        <v>0.9667899782503865</v>
+        <v>0.4464340540598009</v>
       </c>
       <c r="D209" t="n">
-        <v>1.132611226747692</v>
+        <v>0.02543781364806057</v>
       </c>
       <c r="E209" t="n">
         <v>34</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0280811441244137</v>
+        <v>0.5255576326072144</v>
       </c>
       <c r="C210" t="n">
-        <v>1.032039421899097</v>
+        <v>0.4575991579814879</v>
       </c>
       <c r="D210" t="n">
-        <v>1.383580752448005</v>
+        <v>0.01684320941129762</v>
       </c>
       <c r="E210" t="n">
         <v>34</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.05674391330248368</v>
+        <v>0.4565693722926957</v>
       </c>
       <c r="C211" t="n">
-        <v>0.640038909432502</v>
+        <v>0.4771630638247533</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7179575765164615</v>
+        <v>0.06626756388255117</v>
       </c>
       <c r="E211" t="n">
         <v>34</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.3252949647443305</v>
+        <v>0.3059448043621011</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6462344100355436</v>
+        <v>0.6460681384929343</v>
       </c>
       <c r="D212" t="n">
-        <v>1.008613735715166</v>
+        <v>0.04798705714496437</v>
       </c>
       <c r="E212" t="n">
         <v>34</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.2697550005645437</v>
+        <v>0.6625505275924835</v>
       </c>
       <c r="C213" t="n">
-        <v>0.9271817590522572</v>
+        <v>0.3085879562162595</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9548346811674336</v>
+        <v>0.02886151619125709</v>
       </c>
       <c r="E213" t="n">
         <v>34</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.9381867776060628</v>
+        <v>0.919749667281843</v>
       </c>
       <c r="C214" t="n">
-        <v>1.587142532777304</v>
+        <v>0.07835348997706323</v>
       </c>
       <c r="D214" t="n">
-        <v>2.140780279885227</v>
+        <v>0.001896842741093679</v>
       </c>
       <c r="E214" t="n">
         <v>35</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.9353624383650894</v>
+        <v>0.9183103984620767</v>
       </c>
       <c r="C215" t="n">
-        <v>1.49399162100627</v>
+        <v>0.07881220010673727</v>
       </c>
       <c r="D215" t="n">
-        <v>1.807093512063311</v>
+        <v>0.002877401431186109</v>
       </c>
       <c r="E215" t="n">
         <v>35</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.834717319844813</v>
+        <v>0.8974687175577425</v>
       </c>
       <c r="C216" t="n">
-        <v>1.465373295231356</v>
+        <v>0.09953826838049074</v>
       </c>
       <c r="D216" t="n">
-        <v>1.944837965424022</v>
+        <v>0.002993014061766635</v>
       </c>
       <c r="E216" t="n">
         <v>35</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.8226626427269392</v>
+        <v>0.8951221831774767</v>
       </c>
       <c r="C217" t="n">
-        <v>1.48927327673901</v>
+        <v>0.1023667616465425</v>
       </c>
       <c r="D217" t="n">
-        <v>2.199924690276227</v>
+        <v>0.002511055175980853</v>
       </c>
       <c r="E217" t="n">
         <v>35</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.6244318801721958</v>
+        <v>0.8363193400792801</v>
       </c>
       <c r="C218" t="n">
-        <v>1.298988186959772</v>
+        <v>0.1585542612375298</v>
       </c>
       <c r="D218" t="n">
-        <v>1.86643544936242</v>
+        <v>0.005126398683189924</v>
       </c>
       <c r="E218" t="n">
         <v>35</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.7009221105211763</v>
+        <v>0.856774519830932</v>
       </c>
       <c r="C219" t="n">
-        <v>1.142060105029099</v>
+        <v>0.1338100305377301</v>
       </c>
       <c r="D219" t="n">
-        <v>1.469827463936504</v>
+        <v>0.009415449631337794</v>
       </c>
       <c r="E219" t="n">
         <v>35</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.52004860416514</v>
+        <v>0.7711714717483427</v>
       </c>
       <c r="C220" t="n">
-        <v>0.7539801309167983</v>
+        <v>0.1922636902413629</v>
       </c>
       <c r="D220" t="n">
-        <v>0.910861936322327</v>
+        <v>0.03656483801029414</v>
       </c>
       <c r="E220" t="n">
         <v>35</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.2783856197611809</v>
+        <v>0.6661065368106424</v>
       </c>
       <c r="C221" t="n">
-        <v>0.7812277266416713</v>
+        <v>0.3061190925215955</v>
       </c>
       <c r="D221" t="n">
-        <v>1.260371005805972</v>
+        <v>0.0277743706677621</v>
       </c>
       <c r="E221" t="n">
         <v>35</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.046218362197209</v>
+        <v>0.9349358014452734</v>
       </c>
       <c r="C222" t="n">
-        <v>1.349815842351955</v>
+        <v>0.06056051242705265</v>
       </c>
       <c r="D222" t="n">
-        <v>1.598624979787111</v>
+        <v>0.004503686127674094</v>
       </c>
       <c r="E222" t="n">
         <v>35</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.006189311240277</v>
+        <v>0.9290350546364204</v>
       </c>
       <c r="C223" t="n">
-        <v>1.392475107317719</v>
+        <v>0.06661043009198116</v>
       </c>
       <c r="D223" t="n">
-        <v>1.486925355355048</v>
+        <v>0.004354515271598456</v>
       </c>
       <c r="E223" t="n">
         <v>35</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.6391774567400146</v>
+        <v>0.8422211771215958</v>
       </c>
       <c r="C224" t="n">
-        <v>1.359476832468172</v>
+        <v>0.1537628569449248</v>
       </c>
       <c r="D224" t="n">
-        <v>2.021535413656203</v>
+        <v>0.004015965933479341</v>
       </c>
       <c r="E224" t="n">
         <v>35</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.150352041587652</v>
+        <v>0.9513692138719514</v>
       </c>
       <c r="C225" t="n">
-        <v>1.734240693241088</v>
+        <v>0.0471954503264988</v>
       </c>
       <c r="D225" t="n">
-        <v>1.778020501418958</v>
+        <v>0.001435335801550018</v>
       </c>
       <c r="E225" t="n">
         <v>35</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.8222485903435623</v>
+        <v>0.8893812289178047</v>
       </c>
       <c r="C226" t="n">
-        <v>1.158649499585846</v>
+        <v>0.1020268750586958</v>
       </c>
       <c r="D226" t="n">
-        <v>1.48763428833022</v>
+        <v>0.008591896023499581</v>
       </c>
       <c r="E226" t="n">
         <v>35</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.5929283512207488</v>
+        <v>0.82311061697443</v>
       </c>
       <c r="C227" t="n">
-        <v>1.178820679986029</v>
+        <v>0.1691681639203844</v>
       </c>
       <c r="D227" t="n">
-        <v>1.698800679922052</v>
+        <v>0.007721219105185846</v>
       </c>
       <c r="E227" t="n">
         <v>35</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5409300960889707</v>
+        <v>0.8053578658950632</v>
       </c>
       <c r="C228" t="n">
-        <v>1.276745946461301</v>
+        <v>0.188895724631255</v>
       </c>
       <c r="D228" t="n">
-        <v>1.808005738325569</v>
+        <v>0.00574640947368186</v>
       </c>
       <c r="E228" t="n">
         <v>35</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.8796060893285327</v>
+        <v>0.9050754676204409</v>
       </c>
       <c r="C229" t="n">
-        <v>1.306158456009822</v>
+        <v>0.08959953943520242</v>
       </c>
       <c r="D229" t="n">
-        <v>1.618373285656951</v>
+        <v>0.005324992944356608</v>
       </c>
       <c r="E229" t="n">
         <v>35</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3691221294401711</v>
+        <v>0.7121156011340479</v>
       </c>
       <c r="C230" t="n">
-        <v>0.843426849515137</v>
+        <v>0.2587767544247289</v>
       </c>
       <c r="D230" t="n">
-        <v>1.02538382273837</v>
+        <v>0.0291076444412229</v>
       </c>
       <c r="E230" t="n">
         <v>35</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.5291026765896161</v>
+        <v>0.7954279872943517</v>
       </c>
       <c r="C231" t="n">
-        <v>1.014404231061701</v>
+        <v>0.1925827661899884</v>
       </c>
       <c r="D231" t="n">
-        <v>1.701473598006381</v>
+        <v>0.01198924651565984</v>
       </c>
       <c r="E231" t="n">
         <v>35</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.4691742196863228</v>
+        <v>0.7497095962345647</v>
       </c>
       <c r="C232" t="n">
-        <v>0.7232016654160388</v>
+        <v>0.2130932150300086</v>
       </c>
       <c r="D232" t="n">
-        <v>1.002814750912443</v>
+        <v>0.03719718873542671</v>
       </c>
       <c r="E232" t="n">
         <v>35</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.9190562216639788</v>
+        <v>0.9165517042069333</v>
       </c>
       <c r="C233" t="n">
-        <v>1.689376573783715</v>
+        <v>0.0819752214170219</v>
       </c>
       <c r="D233" t="n">
-        <v>2.115712048582004</v>
+        <v>0.001473074376044904</v>
       </c>
       <c r="E233" t="n">
         <v>35</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.04488924104909103</v>
+        <v>0.5036643178741352</v>
       </c>
       <c r="C234" t="n">
-        <v>0.4647070636566722</v>
+        <v>0.4150947319378663</v>
       </c>
       <c r="D234" t="n">
-        <v>0.7362123752757485</v>
+        <v>0.08124095018799851</v>
       </c>
       <c r="E234" t="n">
         <v>35</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.2296968728137048</v>
+        <v>0.3057359530280139</v>
       </c>
       <c r="C235" t="n">
-        <v>0.07524692629020235</v>
+        <v>0.5629087274992274</v>
       </c>
       <c r="D235" t="n">
-        <v>0.7935320826346485</v>
+        <v>0.1313553194727589</v>
       </c>
       <c r="E235" t="n">
         <v>35</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.1902305898442054</v>
+        <v>0.3407656995016738</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1893640549587557</v>
+        <v>0.5246667108175473</v>
       </c>
       <c r="D236" t="n">
-        <v>0.6319944988707321</v>
+        <v>0.1345675896807788</v>
       </c>
       <c r="E236" t="n">
         <v>35</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.598039928793568</v>
+        <v>0.8262017351522994</v>
       </c>
       <c r="C237" t="n">
-        <v>1.260015809720951</v>
+        <v>0.1675471940894087</v>
       </c>
       <c r="D237" t="n">
-        <v>1.714968927058315</v>
+        <v>0.006251070758291679</v>
       </c>
       <c r="E237" t="n">
         <v>35</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.01638524111264444</v>
+        <v>0.4975522906271045</v>
       </c>
       <c r="C238" t="n">
-        <v>0.9078105101799251</v>
+        <v>0.4860675390711564</v>
       </c>
       <c r="D238" t="n">
-        <v>1.577471767465305</v>
+        <v>0.01638017030173908</v>
       </c>
       <c r="E238" t="n">
         <v>35</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.7677610843747258</v>
+        <v>0.8737345580528554</v>
       </c>
       <c r="C239" t="n">
-        <v>1.087519223908825</v>
+        <v>0.1152442266602231</v>
       </c>
       <c r="D239" t="n">
-        <v>1.401936550906889</v>
+        <v>0.01102121528692126</v>
       </c>
       <c r="E239" t="n">
         <v>35</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.5779164298941166</v>
+        <v>0.821196914643779</v>
       </c>
       <c r="C240" t="n">
-        <v>1.410336295790881</v>
+        <v>0.1752454556817143</v>
       </c>
       <c r="D240" t="n">
-        <v>2.031057429029012</v>
+        <v>0.003557629674506967</v>
       </c>
       <c r="E240" t="n">
         <v>35</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.142278154087549</v>
+        <v>0.9498010707085004</v>
       </c>
       <c r="C241" t="n">
-        <v>1.617148797362358</v>
+        <v>0.04810899951288169</v>
       </c>
       <c r="D241" t="n">
-        <v>1.64489381363024</v>
+        <v>0.002089929778617652</v>
       </c>
       <c r="E241" t="n">
         <v>35</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.4806678874635392</v>
+        <v>0.7367660569721309</v>
       </c>
       <c r="C242" t="n">
-        <v>0.6679815279881153</v>
+        <v>0.1968438851991672</v>
       </c>
       <c r="D242" t="n">
-        <v>0.4036628740124188</v>
+        <v>0.06639005782870171</v>
       </c>
       <c r="E242" t="n">
         <v>35</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.1652030734431233</v>
+        <v>0.5679565949469197</v>
       </c>
       <c r="C243" t="n">
-        <v>0.4468171223200385</v>
+        <v>0.352144679621942</v>
       </c>
       <c r="D243" t="n">
-        <v>0.7907659611809451</v>
+        <v>0.07989872543113806</v>
       </c>
       <c r="E243" t="n">
         <v>35</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.5438217552619304</v>
+        <v>0.7661947857867528</v>
       </c>
       <c r="C244" t="n">
-        <v>0.7015320666936843</v>
+        <v>0.1765758227822221</v>
       </c>
       <c r="D244" t="n">
-        <v>0.467961092461387</v>
+        <v>0.05722939143102505</v>
       </c>
       <c r="E244" t="n">
         <v>35</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.6285908443227155</v>
+        <v>0.8198630349011183</v>
       </c>
       <c r="C245" t="n">
-        <v>0.8693572508721245</v>
+        <v>0.1547144254167432</v>
       </c>
       <c r="D245" t="n">
-        <v>1.000867459866093</v>
+        <v>0.02542253968213831</v>
       </c>
       <c r="E245" t="n">
         <v>35</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3172989865264523</v>
+        <v>0.6386392273224673</v>
       </c>
       <c r="C246" t="n">
-        <v>0.4853328996942393</v>
+        <v>0.2601783093325437</v>
       </c>
       <c r="D246" t="n">
-        <v>0.3841662960627945</v>
+        <v>0.101182463344989</v>
       </c>
       <c r="E246" t="n">
         <v>35</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.6926272301039373</v>
+        <v>0.8566456709330875</v>
       </c>
       <c r="C247" t="n">
-        <v>1.245320493533253</v>
+        <v>0.1365372047530452</v>
       </c>
       <c r="D247" t="n">
-        <v>1.584550913130834</v>
+        <v>0.006817124313867415</v>
       </c>
       <c r="E247" t="n">
         <v>35</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3526137000852427</v>
+        <v>0.7034024849993005</v>
       </c>
       <c r="C248" t="n">
-        <v>0.8050402054117539</v>
+        <v>0.2672229408159835</v>
       </c>
       <c r="D248" t="n">
-        <v>1.109348009847303</v>
+        <v>0.029374574184716</v>
       </c>
       <c r="E248" t="n">
         <v>35</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.4532189784757608</v>
+        <v>0.2286115796264588</v>
       </c>
       <c r="C249" t="n">
-        <v>0.113630513629755</v>
+        <v>0.5786202772888646</v>
       </c>
       <c r="D249" t="n">
-        <v>0.3798429590396568</v>
+        <v>0.1927681430846767</v>
       </c>
       <c r="E249" t="n">
         <v>36</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.582485286678818</v>
+        <v>0.006658112413845113</v>
       </c>
       <c r="C250" t="n">
-        <v>-1.332756631363526</v>
+        <v>0.1923591744380227</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.6867514146398647</v>
+        <v>0.8009827131481323</v>
       </c>
       <c r="E250" t="n">
         <v>36</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.9679755777732597</v>
+        <v>0.0898178351580949</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.2624924932208076</v>
+        <v>0.6010300541316296</v>
       </c>
       <c r="D251" t="n">
-        <v>0.2450140791076409</v>
+        <v>0.3091521107102753</v>
       </c>
       <c r="E251" t="n">
         <v>36</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.611955322557918</v>
+        <v>0.01613116421898467</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.8686460507624533</v>
+        <v>0.6228544443114551</v>
       </c>
       <c r="D252" t="n">
-        <v>0.2261744966855092</v>
+        <v>0.3610143914695602</v>
       </c>
       <c r="E252" t="n">
         <v>36</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-1.020772534302694</v>
+        <v>0.00981786853606751</v>
       </c>
       <c r="C253" t="n">
-        <v>-1.265055059424103</v>
+        <v>0.06259633186494591</v>
       </c>
       <c r="D253" t="n">
-        <v>-1.277611557985928</v>
+        <v>0.9275857995989866</v>
       </c>
       <c r="E253" t="n">
         <v>36</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.457407446706569</v>
+        <v>0.02250007234346064</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.8940959698021546</v>
+        <v>0.2871681011654142</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.4345880199932777</v>
+        <v>0.690331826491125</v>
       </c>
       <c r="E254" t="n">
         <v>36</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.04763293913048</v>
+        <v>0.03117847473799404</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.8702817239578623</v>
+        <v>0.2389979360931938</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.5447462404388189</v>
+        <v>0.7298235891688121</v>
       </c>
       <c r="E255" t="n">
         <v>36</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.7762099205123152</v>
+        <v>0.1244955758723917</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.0772425718325026</v>
+        <v>0.675179980978992</v>
       </c>
       <c r="D256" t="n">
-        <v>0.4835308098504003</v>
+        <v>0.2003244431486164</v>
       </c>
       <c r="E256" t="n">
         <v>36</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.792221755282995</v>
+        <v>0.00641592824791556</v>
       </c>
       <c r="C257" t="n">
-        <v>-1.299558314868281</v>
+        <v>0.2651780625405651</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.4939634967693463</v>
+        <v>0.7284060092115193</v>
       </c>
       <c r="E257" t="n">
         <v>36</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-1.065819689691026</v>
+        <v>0.04602491272838938</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.6992578490824316</v>
+        <v>0.3228785413401171</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.3424532708908357</v>
+        <v>0.6310965459314933</v>
       </c>
       <c r="E258" t="n">
         <v>36</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-1.178863582699464</v>
+        <v>0.04038595527870443</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.6994046168196236</v>
+        <v>0.3926550813150382</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.2013926043334989</v>
+        <v>0.5669589634062573</v>
       </c>
       <c r="E259" t="n">
         <v>36</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-1.039255588704961</v>
+        <v>0.06986933758510909</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.3503476071769031</v>
+        <v>0.6525937038314323</v>
       </c>
       <c r="D260" t="n">
-        <v>0.3531117962173697</v>
+        <v>0.2775369585834581</v>
       </c>
       <c r="E260" t="n">
         <v>36</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-1.258482071266485</v>
+        <v>0.04098628664396744</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.6022456809343625</v>
+        <v>0.5574475355283482</v>
       </c>
       <c r="D261" t="n">
-        <v>0.1204603112936768</v>
+        <v>0.4015661778276844</v>
       </c>
       <c r="E261" t="n">
         <v>36</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-1.254714436713513</v>
+        <v>0.03840101748238114</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.6845693718945997</v>
+        <v>0.4386244877551012</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.1124114152649368</v>
+        <v>0.5229744947625176</v>
       </c>
       <c r="E262" t="n">
         <v>36</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.1780588559581847</v>
+        <v>0.3957892810623502</v>
       </c>
       <c r="C263" t="n">
-        <v>0.8093798042492862</v>
+        <v>0.5783790355884232</v>
       </c>
       <c r="D263" t="n">
-        <v>1.312971607532085</v>
+        <v>0.02583168334922666</v>
       </c>
       <c r="E263" t="n">
         <v>36</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.8984222582752752</v>
+        <v>0.09230612418911716</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.4082235354089251</v>
+        <v>0.3929538515571047</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.1820500015611016</v>
+        <v>0.5147400242537779</v>
       </c>
       <c r="E264" t="n">
         <v>36</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-1.171407203514122</v>
+        <v>0.04881814681763742</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.5701493639719389</v>
+        <v>0.5178626784483048</v>
       </c>
       <c r="D265" t="n">
-        <v>0.04896625498702904</v>
+        <v>0.4333191747340577</v>
       </c>
       <c r="E265" t="n">
         <v>36</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-1.212761502166629</v>
+        <v>0.05473526722893024</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.1793111453989725</v>
+        <v>0.8094249110448137</v>
       </c>
       <c r="D266" t="n">
-        <v>0.7667577120565668</v>
+        <v>0.1358398217262558</v>
       </c>
       <c r="E266" t="n">
         <v>36</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.99997427457393</v>
+        <v>0.08096358173024382</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.4386743808557328</v>
+        <v>0.3880169035701915</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.1997078963242485</v>
+        <v>0.5310195146995649</v>
       </c>
       <c r="E267" t="n">
         <v>36</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.6280237400196997</v>
+        <v>0.1661845128748096</v>
       </c>
       <c r="C268" t="n">
-        <v>0.09754998744743359</v>
+        <v>0.6939276900060608</v>
       </c>
       <c r="D268" t="n">
-        <v>0.6421772476300945</v>
+        <v>0.1398877971191297</v>
       </c>
       <c r="E268" t="n">
         <v>36</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.464330996525959</v>
+        <v>0.01420136410209509</v>
       </c>
       <c r="C269" t="n">
-        <v>-1.06834704556012</v>
+        <v>0.2791322218193745</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.456833996879247</v>
+        <v>0.7066664140785306</v>
       </c>
       <c r="E269" t="n">
         <v>36</v>
@@ -5758,13 +5758,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-1.41672381833375</v>
+        <v>0.01529732085064706</v>
       </c>
       <c r="C270" t="n">
-        <v>-1.050201176289366</v>
+        <v>0.3085697898707417</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.3898662433194387</v>
+        <v>0.676132889278611</v>
       </c>
       <c r="E270" t="n">
         <v>36</v>
@@ -5778,13 +5778,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-1.530304946523899</v>
+        <v>0.002325484727665827</v>
       </c>
       <c r="C271" t="n">
-        <v>-1.678385825920447</v>
+        <v>0.03775471190207732</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.52430344793364</v>
+        <v>0.9599198033702567</v>
       </c>
       <c r="E271" t="n">
         <v>36</v>
@@ -5798,13 +5798,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-1.706367133745829</v>
+        <v>0.00272018257711003</v>
       </c>
       <c r="C272" t="n">
-        <v>-1.71515200888307</v>
+        <v>0.05775377198411913</v>
       </c>
       <c r="D272" t="n">
-        <v>-1.316229173727087</v>
+        <v>0.9395260454387711</v>
       </c>
       <c r="E272" t="n">
         <v>36</v>
@@ -5818,13 +5818,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-1.169226753000203</v>
+        <v>0.0181711853348663</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.054788615474965</v>
+        <v>0.2274344158915381</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.5823344392423236</v>
+        <v>0.7543943987735954</v>
       </c>
       <c r="E273" t="n">
         <v>36</v>
